--- a/web_scraper/processed_judgements_final/Crl.A._103_2010.xlsx
+++ b/web_scraper/processed_judgements_final/Crl.A._103_2010.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * On April 17, 2002, Muhammad Saleem was murdered by Amjad Shah and Sajid Shah, who were motivated by a previous insult and humiliation caused by Muhammad Saleem. * The incident occurred in the village of Kot Dadu, District Attock, where Muhammad Saleem and his brother Sahibzada were loading harvested wheat onto a tractor-trolley. * Sajid Shah, who was grazing his cattle in the standing wheat crop, had been reprimanded and abused by Muhammad Saleem on the previous day. * Feeling humiliated and hurt, Sajid Shah threatened to avenge his disgrace and left for his home. * Later, Amjad Shah and Sajid Shah, each armed with a 0.30 bore pistol, raised a lalkara (a challenge to fight) and chased Muhammad Saleem, who was running away. * Amjad Shah fired a fatal shot from his pistol, striking Muhammad Saleem on the forehead, while Sajid Shah's shot missed the deceased. * Both accused persons made good their escape, and Muhammad Saleem was taken to Civil Hospital, Hassan Abdal, where he died.  </t>
+          <t xml:space="preserve"> * The appellant, Amjad Shah, along with his co-accused, Sajid Shah, was charged with murdering Muhammad Saleem in an occurrence reported on April 17, 2002. * The incident took place when the deceased, along with his brother and nephew, was returning from loading harvested wheat in their land. * Sajid Shah, who was grazing his cattle in their standing wheat crop, had been reprimanded and abused by the deceased on the previous day. * The accused persons, armed with pistols, chased the deceased, and Amjad Shah fired a fatal shot at him from the front side, striking him on the forehead. * The police reached the hospital where the deceased was taken and lodged a complaint against the two accused persons for murdering Muhammad Saleem.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Sahibzada (PW-12), brother of Muhammad Saleem, who lodged the FIR and provided an ocular account of the incident. * Shafaqat Ali (PW-11), nephew of Muhammad Saleem, who was with him when he was killed. * Dr. Ishtiaq Hussain (PW-8), who conducted the post-mortem examination of the deceased. * Saleem Akhtar, Inspector (PW-13), who provided details about the investigation.  </t>
+          <t xml:space="preserve"> * Shafagat Ali (PW-11), the nephew of the deceased, and Sahibzada (PW-12), the brother of the deceased, were eyewitnesses to the incident. * Dr. Ishtiaq Hussain (PW-8) conducted the post-mortem examination of the deceased. * Saleem Akhtar, Inspector (PW-13), provided details about the different limbs of the prosecution case.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The Supreme Court of Pakistan, in a criminal appeal, partially allowed the appeal of Amjad Shah, who was convicted of murder and sentenced to death. * The Court reduced the sentence from death to life imprisonment under Section 302(b) PPC, citing the lack of motive and the fact that Amjad Shah was merely a volunteer in the occurrence and not a party to the friction between the two sides. * The Court also noted that the absence of repeated firing dispels premeditation by Amjad Shah to kill Muhammad Saleem. * The sentence of fine and imprisonment in case of default remained intact. * The Court further held that the availability of remissions to lifer-prisoners cannot deprive a sentence of life imprisonment from being a lawful punishment in terms of Section 302(b) PPC. </t>
+          <t xml:space="preserve"> * The appellant, Amjad Shah, was sentenced to death by the learned Sessions Judge Attock. * The High Court acquitted Sajid Shah, the co-accused, and maintained the conviction and sentence of Amjad Shah. * The Supreme Court, in this appeal, altered the sentence of death to life imprisonment under Section 302(b) PPC. * The Court held that the motive for the commission of the offense was not proved, and the participation of the appellant in the commission of the offense was established, but his intention, guilty mind, or motive to commit the same remained shrouded in mystery and was therefore unproven. * The Court also considered the youthful tendency of the appellant and the lack of motive as mitigating circumstances, and reduced the sentence from death to life imprisonment. * The appellant was also entitled to the benefit of Section 382-B Cr.P.C. </t>
         </is>
       </c>
     </row>
